--- a/E-commerce Sales/Excel_Report.xlsx
+++ b/E-commerce Sales/Excel_Report.xlsx
@@ -8,23 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E-commerce Sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61698171-5DEE-46EE-BE3F-81928BBA8076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940648CD-7C58-417B-ABC1-C85FF0BE2E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3B45EEE1-1B6C-471D-9C14-C26B374BEBAE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{3B45EEE1-1B6C-471D-9C14-C26B374BEBAE}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="3" r:id="rId1"/>
     <sheet name="customers" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Amount by category" sheetId="5" r:id="rId3"/>
+    <sheet name="statewise sum of amount" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlcn.WorksheetConnection_Excel_Report.xlsxcustomers1" hidden="1">customers[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Excel_Report.xlsxproducts1" hidden="1">products[]</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">'customers'!$A$1:$E$501</definedName>
     <definedName name="ExternalData_2" localSheetId="0" hidden="1">products!$A$1:$G$1501</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="53" r:id="rId5"/>
+    <pivotCache cacheId="102" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
+      <x15:dataModel>
+        <x15:modelTables>
+          <x15:modelTable id="products" name="products" connection="WorksheetConnection_Excel_Report.xlsx!products"/>
+          <x15:modelTable id="customers" name="customers" connection="WorksheetConnection_Excel_Report.xlsx!customers"/>
+        </x15:modelTables>
+        <x15:modelRelationships>
+          <x15:modelRelationship fromTable="products" fromColumn="Order_ID" toTable="customers" toColumn="Order_ID"/>
+        </x15:modelRelationships>
+      </x15:dataModel>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -49,11 +67,38 @@
   <connection id="2" xr16:uid="{DC5620A5-2C14-4738-9E8A-F06733B50047}" keepAlive="1" name="Query - products" description="Connection to the 'products' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=products;Extended Properties=&quot;&quot;" command="SELECT * FROM [products]"/>
   </connection>
+  <connection id="3" xr16:uid="{EBEAA5EA-81DF-4115-9DE9-FEA5AD83AB69}" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="8" minRefreshableVersion="5" background="1">
+    <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="" model="1"/>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="4" xr16:uid="{F5091386-78EF-4692-A5C6-F233CDFF4A7A}" name="WorksheetConnection_Excel_Report.xlsx!customers" type="102" refreshedVersion="8" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="customers">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Excel_Report.xlsxcustomers1"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="5" xr16:uid="{30D55364-2573-46EA-9308-8E9EC949EC3D}" name="WorksheetConnection_Excel_Report.xlsx!products" type="102" refreshedVersion="8" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="products" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Excel_Report.xlsxproducts1"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8012" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8040" uniqueCount="918">
   <si>
     <t>Order_ID</t>
   </si>
@@ -2795,6 +2840,18 @@
   </si>
   <si>
     <t>Shirt</t>
+  </si>
+  <si>
+    <t>Sum of Amount</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Kerala</t>
   </si>
 </sst>
 </file>
@@ -2830,10 +2887,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2841,6 +2902,15 @@
   <dxfs count="9">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2857,15 +2927,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2877,6 +2938,2538 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Excel_Report.xlsx]Amount by category!PivotTable2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="brightRoom" dir="t"/>
+          </a:scene3d>
+          <a:sp3d prstMaterial="flat">
+            <a:bevelT w="50800" h="101600" prst="angle"/>
+            <a:contourClr>
+              <a:srgbClr val="000000"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20361132983377078"/>
+          <c:y val="6.9644940215806361E-2"/>
+          <c:w val="0.49359142607174106"/>
+          <c:h val="0.82265237678623504"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Electronics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Furniture</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>144323</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>166267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-78AF-4C4A-94D5-6486DBBCD1BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80081430446194235"/>
+          <c:y val="0.39496427529892097"/>
+          <c:w val="0.18251902887139107"/>
+          <c:h val="0.30164297171186932"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Excel_Report.xlsx]statewise sum of amount!PivotTable2</c:name>
+    <c:fmtId val="5"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="diamond"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'statewise sum of amount'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'statewise sum of amount'!$A$4:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Andhra Pradesh</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bihar</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Delhi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Goa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Gujarat</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Haryana</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Himachal Pradesh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jammu and Kashmir</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Karnataka</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Kerala</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Madhya Pradesh</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Maharashtra</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Nagaland</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Punjab</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Rajasthan</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sikkim</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Tamil Nadu</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Uttar Pradesh</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>West Bengal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'statewise sum of amount'!$B$4:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>13256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13417</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22957</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6705</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21371</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8863</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10829</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12520</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13871</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87463</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>102498</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16786</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5276</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6276</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38362</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D15A-4654-A5B2-3528F76CF811}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="1360019120"/>
+        <c:axId val="1360020080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1360019120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1360020080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1360020080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1360019120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94729883-1452-FE63-9AD8-97D1A3A555A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70FC33AD-E5B1-6A86-4C9D-BC8B89B392E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="LENOVO" refreshedDate="45814.699507407408" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D20277A8-556D-4658-A7D9-58BEE458AE64}">
+  <cacheSource type="external" connectionId="3"/>
+  <cacheFields count="2">
+    <cacheField name="[Measures].[Sum of Amount]" caption="Sum of Amount" numFmtId="0" hierarchy="15" level="32767"/>
+    <cacheField name="[products].[Category].[Category]" caption="Category" numFmtId="0" hierarchy="9" level="1">
+      <sharedItems count="3">
+        <s v="Clothing"/>
+        <s v="Electronics"/>
+        <s v="Furniture"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="17">
+    <cacheHierarchy uniqueName="[customers].[Order_ID]" caption="Order_ID" attribute="1" defaultMemberUniqueName="[customers].[Order_ID].[All]" allUniqueName="[customers].[Order_ID].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Order_Date]" caption="Order_Date" attribute="1" time="1" defaultMemberUniqueName="[customers].[Order_Date].[All]" allUniqueName="[customers].[Order_Date].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[CustomerName]" caption="CustomerName" attribute="1" defaultMemberUniqueName="[customers].[CustomerName].[All]" allUniqueName="[customers].[CustomerName].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[State]" caption="State" attribute="1" defaultMemberUniqueName="[customers].[State].[All]" allUniqueName="[customers].[State].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[City]" caption="City" attribute="1" defaultMemberUniqueName="[customers].[City].[All]" allUniqueName="[customers].[City].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[products].[Order_ID]" caption="Order_ID" attribute="1" defaultMemberUniqueName="[products].[Order_ID].[All]" allUniqueName="[products].[Order_ID].[All]" dimensionUniqueName="[products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[products].[Amount]" caption="Amount" attribute="1" defaultMemberUniqueName="[products].[Amount].[All]" allUniqueName="[products].[Amount].[All]" dimensionUniqueName="[products]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[products].[Profit]" caption="Profit" attribute="1" defaultMemberUniqueName="[products].[Profit].[All]" allUniqueName="[products].[Profit].[All]" dimensionUniqueName="[products]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[products].[Quantity]" caption="Quantity" attribute="1" defaultMemberUniqueName="[products].[Quantity].[All]" allUniqueName="[products].[Quantity].[All]" dimensionUniqueName="[products]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[products].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[products].[Category].[All]" allUniqueName="[products].[Category].[All]" dimensionUniqueName="[products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[products].[Sub_Category]" caption="Sub_Category" attribute="1" defaultMemberUniqueName="[products].[Sub_Category].[All]" allUniqueName="[products].[Sub_Category].[All]" dimensionUniqueName="[products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[products].[PaymentMode]" caption="PaymentMode" attribute="1" defaultMemberUniqueName="[products].[PaymentMode].[All]" allUniqueName="[products].[PaymentMode].[All]" dimensionUniqueName="[products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count products]" caption="__XL_Count products" measure="1" displayFolder="" measureGroup="products" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count customers]" caption="__XL_Count customers" measure="1" displayFolder="" measureGroup="customers" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Amount]" caption="Sum of Amount" measure="1" displayFolder="" measureGroup="products" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Profit]" caption="Sum of Profit" measure="1" displayFolder="" measureGroup="products" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="7"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="3">
+    <dimension name="customers" uniqueName="[customers]" caption="customers"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="products" uniqueName="[products]" caption="products"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="customers" caption="customers"/>
+    <measureGroup name="products" caption="products"/>
+  </measureGroups>
+  <maps count="3">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="2"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="LENOVO" refreshedDate="45814.705196875002" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{31E737A4-73BC-4C0F-8D3E-425F7CF00491}">
+  <cacheSource type="external" connectionId="3"/>
+  <cacheFields count="2">
+    <cacheField name="[Measures].[Sum of Amount]" caption="Sum of Amount" numFmtId="0" hierarchy="15" level="32767"/>
+    <cacheField name="[customers].[State].[State]" caption="State" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems count="19">
+        <s v="Andhra Pradesh"/>
+        <s v="Bihar"/>
+        <s v="Delhi"/>
+        <s v="Goa"/>
+        <s v="Gujarat"/>
+        <s v="Haryana"/>
+        <s v="Himachal Pradesh"/>
+        <s v="Jammu and Kashmir"/>
+        <s v="Karnataka"/>
+        <s v="Kerala"/>
+        <s v="Madhya Pradesh"/>
+        <s v="Maharashtra"/>
+        <s v="Nagaland"/>
+        <s v="Punjab"/>
+        <s v="Rajasthan"/>
+        <s v="Sikkim"/>
+        <s v="Tamil Nadu"/>
+        <s v="Uttar Pradesh"/>
+        <s v="West Bengal"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="17">
+    <cacheHierarchy uniqueName="[customers].[Order_ID]" caption="Order_ID" attribute="1" defaultMemberUniqueName="[customers].[Order_ID].[All]" allUniqueName="[customers].[Order_ID].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Order_Date]" caption="Order_Date" attribute="1" time="1" defaultMemberUniqueName="[customers].[Order_Date].[All]" allUniqueName="[customers].[Order_Date].[All]" dimensionUniqueName="[customers]" displayFolder="" count="2" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[CustomerName]" caption="CustomerName" attribute="1" defaultMemberUniqueName="[customers].[CustomerName].[All]" allUniqueName="[customers].[CustomerName].[All]" dimensionUniqueName="[customers]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[State]" caption="State" attribute="1" defaultMemberUniqueName="[customers].[State].[All]" allUniqueName="[customers].[State].[All]" dimensionUniqueName="[customers]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[customers].[City]" caption="City" attribute="1" defaultMemberUniqueName="[customers].[City].[All]" allUniqueName="[customers].[City].[All]" dimensionUniqueName="[customers]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[products].[Order_ID]" caption="Order_ID" attribute="1" defaultMemberUniqueName="[products].[Order_ID].[All]" allUniqueName="[products].[Order_ID].[All]" dimensionUniqueName="[products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[products].[Amount]" caption="Amount" attribute="1" defaultMemberUniqueName="[products].[Amount].[All]" allUniqueName="[products].[Amount].[All]" dimensionUniqueName="[products]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[products].[Profit]" caption="Profit" attribute="1" defaultMemberUniqueName="[products].[Profit].[All]" allUniqueName="[products].[Profit].[All]" dimensionUniqueName="[products]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[products].[Quantity]" caption="Quantity" attribute="1" defaultMemberUniqueName="[products].[Quantity].[All]" allUniqueName="[products].[Quantity].[All]" dimensionUniqueName="[products]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[products].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[products].[Category].[All]" allUniqueName="[products].[Category].[All]" dimensionUniqueName="[products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[products].[Sub_Category]" caption="Sub_Category" attribute="1" defaultMemberUniqueName="[products].[Sub_Category].[All]" allUniqueName="[products].[Sub_Category].[All]" dimensionUniqueName="[products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[products].[PaymentMode]" caption="PaymentMode" attribute="1" defaultMemberUniqueName="[products].[PaymentMode].[All]" allUniqueName="[products].[PaymentMode].[All]" dimensionUniqueName="[products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count products]" caption="__XL_Count products" measure="1" displayFolder="" measureGroup="products" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count customers]" caption="__XL_Count customers" measure="1" displayFolder="" measureGroup="customers" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Amount]" caption="Sum of Amount" measure="1" displayFolder="" measureGroup="products" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Profit]" caption="Sum of Profit" measure="1" displayFolder="" measureGroup="products" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="7"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="3">
+    <dimension name="customers" uniqueName="[customers]" caption="customers"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="products" uniqueName="[products]" caption="products"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="customers" caption="customers"/>
+    <measureGroup name="products" caption="products"/>
+  </measureGroups>
+  <maps count="3">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="2"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4A6A6AB2-4A2C-4F47-BD67-E1EC4221C0F3}" name="PivotTable2" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="17">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="9"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[products]"/>
+        <x15:activeTabTopLevelEntity name="[customers]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ECC82310-4C3B-4BE0-B67B-84490D53821A}" name="PivotTable2" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A3:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="19">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="20">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="3" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="17">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="3"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[products]"/>
+        <x15:activeTabTopLevelEntity name="[customers]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2916,13 +5509,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{58EDDCF7-5CA0-4B76-9815-1DE9335F41F4}" name="products" displayName="products" ref="A1:G1501" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:G1501" xr:uid="{58EDDCF7-5CA0-4B76-9815-1DE9335F41F4}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{826F0D08-F41B-4FB3-BC67-93C97DA864A0}" uniqueName="1" name="Order_ID" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{826F0D08-F41B-4FB3-BC67-93C97DA864A0}" uniqueName="1" name="Order_ID" queryTableFieldId="1" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{D0745C7D-F89F-4A43-B934-CDD387E6D10C}" uniqueName="2" name="Amount" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{89A13786-943E-4932-89FC-68766F7E3B63}" uniqueName="3" name="Profit" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{E207F21C-CF23-4B39-A693-DBCC50A69B98}" uniqueName="4" name="Quantity" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{D0BB003C-C9F0-48CD-8513-11644C9A2FB7}" uniqueName="5" name="Category" queryTableFieldId="5" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{CF99848A-DFAA-481D-A105-1F1B399DFC51}" uniqueName="6" name="Sub_Category" queryTableFieldId="6" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{B9DE0AF9-F8E0-4965-B974-4EB0485EAE60}" uniqueName="7" name="PaymentMode" queryTableFieldId="7" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{D0BB003C-C9F0-48CD-8513-11644C9A2FB7}" uniqueName="5" name="Category" queryTableFieldId="5" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{CF99848A-DFAA-481D-A105-1F1B399DFC51}" uniqueName="6" name="Sub_Category" queryTableFieldId="6" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{B9DE0AF9-F8E0-4965-B974-4EB0485EAE60}" uniqueName="7" name="PaymentMode" queryTableFieldId="7" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2932,11 +5525,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{698D51E2-3495-402E-AE2D-1E5CAB3CE63A}" name="customers" displayName="customers" ref="A1:E501" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:E501" xr:uid="{698D51E2-3495-402E-AE2D-1E5CAB3CE63A}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B4F95A27-267B-441D-9506-394D5EE1B6DA}" uniqueName="1" name="Order_ID" queryTableFieldId="1" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{88145D8F-EAA1-4745-BC1F-8B999BBC619F}" uniqueName="2" name="Order_Date" queryTableFieldId="2" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{343D08FF-F005-4BBB-9033-3BB27703B60A}" uniqueName="3" name="CustomerName" queryTableFieldId="3" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{0FA17500-CFE5-49B8-AE69-91A520804A06}" uniqueName="4" name="State" queryTableFieldId="4" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{37F195C0-B413-49A5-B888-9EC494587E15}" uniqueName="5" name="City" queryTableFieldId="5" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{B4F95A27-267B-441D-9506-394D5EE1B6DA}" uniqueName="1" name="Order_ID" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{88145D8F-EAA1-4745-BC1F-8B999BBC619F}" uniqueName="2" name="Order_Date" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{343D08FF-F005-4BBB-9033-3BB27703B60A}" uniqueName="3" name="CustomerName" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{0FA17500-CFE5-49B8-AE69-91A520804A06}" uniqueName="4" name="State" queryTableFieldId="4" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{37F195C0-B413-49A5-B888-9EC494587E15}" uniqueName="5" name="City" queryTableFieldId="5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3261,7 +5854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE8F2E0-D64E-4E45-A258-EA968C98E8F8}">
   <dimension ref="A1:G1501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A1474" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -46349,14 +48942,254 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15B762F-3D4D-42DF-9873-F34732756C52}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9248E222-8D00-4281-8582-0A44AA05EBB6}">
+  <dimension ref="A3:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="308" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="309" max="309" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="B3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="B4" s="1">
+        <v>144323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="B5" s="1">
+        <v>166267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="B6" s="1">
+        <v>127181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="B7" s="1">
+        <v>437771</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA59A460-1688-46BC-8D10-628A74E0B466}">
+  <dimension ref="A3:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="308" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="309" max="309" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="B3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1">
+        <v>13256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="1">
+        <v>13417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>22957</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1">
+        <v>21371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8863</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10829</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="1">
+        <v>12520</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="B13" s="1">
+        <v>13871</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>87463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <v>102498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="1">
+        <v>11993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="1">
+        <v>22334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="1">
+        <v>6276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1">
+        <v>38362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="1">
+        <v>14328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="B23" s="1">
+        <v>437771</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
